--- a/template_v3.xlsx
+++ b/template_v3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dpollard/projects/comet/COMET-Farm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{625E2834-F2BC-F94B-BB73-34D2663BCDD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8668C17F-EFB5-3746-9B8A-D7EFE5520773}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{5384504D-6727-334D-8532-C0C118A2956A}"/>
   </bookViews>
@@ -60,7 +60,7 @@
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{2E135710-60BB-1745-B52B-3B4F61DF7101}">
+    <comment ref="A82" authorId="0" shapeId="0" xr:uid="{2E135710-60BB-1745-B52B-3B4F61DF7101}">
       <text>
         <r>
           <rPr>
@@ -98,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="276">
   <si>
     <t>Yes</t>
   </si>
@@ -601,9 +601,6 @@
     <t>"01/01/2029"</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
@@ -886,9 +883,6 @@
     <t>future_scenario_a</t>
   </si>
   <si>
-    <t>future_scenario_b</t>
-  </si>
-  <si>
     <t>current_scenario</t>
   </si>
   <si>
@@ -896,13 +890,49 @@
   </si>
   <si>
     <t>barley - no till</t>
+  </si>
+  <si>
+    <t>Scenario Name</t>
+  </si>
+  <si>
+    <t>Crop</t>
+  </si>
+  <si>
+    <t>Cover crop</t>
+  </si>
+  <si>
+    <t>Rotate fallow</t>
+  </si>
+  <si>
+    <t>Tillage type</t>
+  </si>
+  <si>
+    <t>N_application type</t>
+  </si>
+  <si>
+    <t>N_application amount</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Conservation scenario definitions</t>
+  </si>
+  <si>
+    <t>Baseline definitions</t>
+  </si>
+  <si>
+    <t>N_application_method</t>
+  </si>
+  <si>
+    <t>Add Name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -953,14 +983,6 @@
       <color rgb="FF2A2C2C"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -1022,7 +1044,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1044,12 +1066,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1094,7 +1110,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1121,24 +1137,16 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1154,26 +1162,30 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1181,30 +1193,46 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1232,182 +1260,10 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Input File"/>
-      <sheetName val="Results File"/>
       <sheetName val="Units"/>
-      <sheetName val="Sheet2"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>Alfalfa</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>Barley</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>Broccoli-Coast</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>Broccoli-Desert</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>Cauliflower</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>Clover</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>Corn</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>Corn Silage</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>Cotton</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>Dry Field Beans</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>Fallow</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13" t="str">
-            <v>Grass</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14" t="str">
-            <v>Grass-Legume Mix</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15" t="str">
-            <v>Lettuce-Head</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16" t="str">
-            <v>Lettuce-Romaine</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17" t="str">
-            <v>Lettuce-Leaf</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18" t="str">
-            <v>Millet</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19" t="str">
-            <v>Oats</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20" t="str">
-            <v>Peanut</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21" t="str">
-            <v>Potato</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22" t="str">
-            <v>Rice - Flooded</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23" t="str">
-            <v>Rye</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24" t="str">
-            <v>Sorghum</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25" t="str">
-            <v>Sorghum Silage</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26" t="str">
-            <v>Soybean</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27" t="str">
-            <v>Spring Wheat</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28" t="str">
-            <v>Strawberry</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29" t="str">
-            <v>Sugar Beets</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30" t="str">
-            <v>Sunflower</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31" t="str">
-            <v>Switchgrass</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32" t="str">
-            <v>Tomatoes, Fresh</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="A33" t="str">
-            <v>Tomatoes, Processing</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34" t="str">
-            <v>Winter Wheat</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3"/>
+      <sheetData sheetId="0" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1711,402 +1567,246 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B479D4AE-FA7D-CA44-BF82-B5408D6E0BCF}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q62"/>
+  <dimension ref="A1:Q89"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="25" customHeight="1" outlineLevelRow="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="25" customHeight="1" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="18"/>
-    <col min="2" max="2" width="10.83203125" style="4"/>
-    <col min="3" max="3" width="9.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="20.1640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="21.5" style="4" customWidth="1"/>
     <col min="4" max="4" width="12.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8" style="4" customWidth="1"/>
-    <col min="7" max="7" width="6.1640625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="5.83203125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="11.83203125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="11.5" style="4" customWidth="1"/>
     <col min="9" max="9" width="11" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="10.83203125" style="4"/>
+    <col min="10" max="10" width="20.83203125" style="4" customWidth="1"/>
+    <col min="11" max="15" width="10.83203125" style="4"/>
+    <col min="16" max="16" width="21" style="4" customWidth="1"/>
+    <col min="17" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="3" customFormat="1" ht="25" customHeight="1">
+    <row r="1" spans="1:4" ht="25" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="25" customHeight="1">
+        <v>264</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="25" customHeight="1">
       <c r="A2" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="25" customHeight="1">
-      <c r="A3" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="25" customHeight="1">
-      <c r="A4" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="25" customHeight="1">
-      <c r="A5" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="25" customHeight="1">
-      <c r="A6" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="B6" s="13" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="25" customHeight="1">
+      <c r="A3" s="28" t="s">
+        <v>265</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="25" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>266</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="25" customHeight="1">
+      <c r="A5" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="25" customHeight="1">
+      <c r="A6" s="28" t="s">
+        <v>268</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="27"/>
+    </row>
+    <row r="7" spans="1:4" ht="25" customHeight="1">
+      <c r="A7" s="28" t="s">
+        <v>269</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="25" customHeight="1">
+      <c r="A8" s="28" t="s">
+        <v>270</v>
+      </c>
+      <c r="B8" s="31">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="25" customHeight="1">
+      <c r="A9" s="28" t="s">
+        <v>274</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="25" customHeight="1">
+      <c r="A10" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="B10" s="31"/>
+    </row>
+    <row r="11" spans="1:4" ht="25" customHeight="1">
+      <c r="A11" s="28" t="s">
+        <v>265</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="25" customHeight="1">
+      <c r="A12" s="28" t="s">
+        <v>266</v>
+      </c>
+      <c r="B12" s="31" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="25" customHeight="1">
-      <c r="A7" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="25" customHeight="1">
-      <c r="A8" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="C8"/>
-    </row>
-    <row r="9" spans="1:17" ht="25" customHeight="1">
-      <c r="A9" s="14" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="25" customHeight="1">
-      <c r="A10" s="14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="25" customHeight="1">
-      <c r="A11" s="14" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="25" customHeight="1">
-      <c r="A12" s="14" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="25" customHeight="1">
-      <c r="A13" s="15" t="s">
+    <row r="13" spans="1:4" ht="25" customHeight="1">
+      <c r="A13" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="B13" s="31" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" ht="25" customHeight="1">
-      <c r="A14" s="16"/>
-      <c r="B14" s="11"/>
-    </row>
-    <row r="15" spans="1:17" s="21" customFormat="1" ht="25" customHeight="1">
-      <c r="A15" s="22" t="s">
-        <v>263</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" s="12" customFormat="1" ht="25" customHeight="1">
-      <c r="A16" s="19"/>
-      <c r="B16" s="23" t="s">
+      <c r="D13" s="29"/>
+    </row>
+    <row r="14" spans="1:4" ht="25" customHeight="1">
+      <c r="A14" s="28" t="s">
+        <v>268</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="25" customHeight="1">
+      <c r="A15" s="28" t="s">
+        <v>269</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="25" customHeight="1">
+      <c r="A16" s="28" t="s">
+        <v>270</v>
+      </c>
+      <c r="B16" s="31">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="25" customHeight="1">
+      <c r="A17" s="28" t="s">
+        <v>274</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="25" customHeight="1">
+      <c r="A18" s="28"/>
+      <c r="B18" s="7"/>
+    </row>
+    <row r="19" spans="1:17" s="19" customFormat="1" ht="25" customHeight="1">
+      <c r="A19" s="20" t="s">
+        <v>261</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" s="11" customFormat="1" ht="25" customHeight="1">
+      <c r="A20" s="17"/>
+      <c r="B20" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C20" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="D20" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="E16" s="23" t="s">
+      <c r="E20" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="F16" s="23" t="s">
+      <c r="F20" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="G16" s="23" t="s">
+      <c r="G20" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="H16" s="23" t="s">
+      <c r="H20" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="I16" s="23" t="s">
+      <c r="I20" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="J16" s="23" t="s">
+      <c r="J20" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="K16" s="23" t="s">
+      <c r="K20" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="L16" s="23" t="s">
+      <c r="L20" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="M16" s="23" t="s">
+      <c r="M20" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="N16" s="24" t="s">
+      <c r="N20" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="O16" s="23" t="s">
+      <c r="O20" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="P16" s="24" t="s">
+      <c r="P20" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="Q16" s="23" t="s">
+      <c r="Q20" s="21" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="25" customHeight="1">
-      <c r="A17" s="17"/>
-      <c r="B17" s="7">
+    <row r="21" spans="1:17" ht="25" customHeight="1">
+      <c r="A21" s="15"/>
+      <c r="B21" s="7">
         <v>2000</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="7" t="s">
+      <c r="C21" s="4" t="str">
+        <f>$B$3</f>
+        <v>Alfalfa</v>
+      </c>
+      <c r="D21" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="E17" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="G17">
+      <c r="E21" s="10" t="str">
+        <f>IF($B$3="ALFALFA","Y",IF($B$3="CLOVER","Y",IF($B$3="Grass","Y",IF($B$3="Switchgrass","Y","N"))))</f>
+        <v>Y</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G21">
         <v>60</v>
-      </c>
-      <c r="H17" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" s="7">
-        <v>0</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="M17" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="N17" s="7">
-        <v>100</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q17" s="10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" ht="25" customHeight="1">
-      <c r="A18" s="17"/>
-      <c r="B18" s="7">
-        <v>2001</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="G18">
-        <v>45</v>
-      </c>
-      <c r="H18" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" s="7">
-        <v>0</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="M18" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="N18" s="7">
-        <v>100</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q18" s="10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" ht="25" customHeight="1">
-      <c r="A19" s="17"/>
-      <c r="B19" s="7">
-        <v>2002</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="G19">
-        <v>53</v>
-      </c>
-      <c r="H19" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="M19" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="N19" s="7">
-        <v>100</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q19" s="10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" ht="25" customHeight="1">
-      <c r="A20" s="17"/>
-      <c r="B20" s="7">
-        <v>2003</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="G20">
-        <v>64</v>
-      </c>
-      <c r="H20" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="K20" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="M20" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="N20" s="7">
-        <v>100</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" ht="25" customHeight="1">
-      <c r="A21" s="17"/>
-      <c r="B21" s="7">
-        <v>2004</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="G21">
-        <v>73</v>
       </c>
       <c r="H21" s="10" t="b">
         <v>1</v>
@@ -2117,251 +1817,185 @@
       <c r="J21" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="K21" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="M21" s="4" t="s">
-        <v>234</v>
+      <c r="K21" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="L21" s="7" t="str">
+        <f>$B$7</f>
+        <v>Ammonium Nitrate</v>
+      </c>
+      <c r="M21" s="7" t="s">
+        <v>229</v>
       </c>
       <c r="N21" s="7">
+        <f>$B$8</f>
         <v>100</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="P21" s="7" t="s">
-        <v>123</v>
+      <c r="P21" s="7" t="str">
+        <f>$B$9</f>
+        <v>Surface Broadcast</v>
       </c>
       <c r="Q21" s="10" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="25" customHeight="1">
-      <c r="A22" s="17"/>
-      <c r="B22" s="7">
-        <v>2005</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="G22">
-        <v>45</v>
-      </c>
-      <c r="H22" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" s="7">
+    <row r="22" spans="1:17" s="34" customFormat="1" ht="25" hidden="1" customHeight="1">
+      <c r="A22" s="33"/>
+      <c r="B22" s="4">
+        <f>IF($B$4="None","",$B$21)</f>
+        <v>2000</v>
+      </c>
+      <c r="C22" s="4" t="str">
+        <f>IF($B$4="None","",$B$4)</f>
+        <v>Cereal Rye</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="35"/>
+    </row>
+    <row r="23" spans="1:17" s="34" customFormat="1" ht="25" customHeight="1">
+      <c r="A23" s="33"/>
+      <c r="B23" s="4">
+        <f>IF($B$4="None","",$B$21)</f>
+        <v>2000</v>
+      </c>
+      <c r="C23" s="4" t="str">
+        <f>IF($B$4="None","",$B$4)</f>
+        <v>Cereal Rye</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="35"/>
+    </row>
+    <row r="24" spans="1:17" ht="25" customHeight="1">
+      <c r="A24" s="15"/>
+      <c r="B24" s="7">
+        <v>2001</v>
+      </c>
+      <c r="C24" s="4" t="str">
+        <f>IF($B$5="Y","Fallow",$B$3)</f>
+        <v>Alfalfa</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E24" s="10" t="str">
+        <f t="shared" ref="E24:E60" si="0">IF($B$3="ALFALFA","Y",IF($B$3="CLOVER","Y",IF($B$3="Grass","Y",IF($B$3="Switchgrass","Y","N"))))</f>
+        <v>Y</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G24">
         <v>0</v>
       </c>
-      <c r="J22" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="K22" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="M22" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="N22" s="7">
-        <v>100</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q22" s="10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" ht="25" customHeight="1">
-      <c r="A23" s="17"/>
-      <c r="B23" s="7">
-        <v>2006</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="G23">
-        <v>58</v>
-      </c>
-      <c r="H23" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I23" s="7">
-        <v>0</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="M23" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="N23" s="7">
-        <v>100</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q23" s="10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" ht="25" customHeight="1">
-      <c r="A24" s="17"/>
-      <c r="B24" s="7">
-        <v>2007</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="G24">
-        <v>53</v>
-      </c>
-      <c r="H24" s="10" t="b">
-        <v>1</v>
+      <c r="H24" s="30" t="str">
+        <f>IF($B$5="Y","FALSE","TRUE")</f>
+        <v>TRUE</v>
       </c>
       <c r="I24" s="7">
         <v>0</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="K24" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="M24" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="N24" s="7">
-        <v>100</v>
+      <c r="J24" s="4" t="str">
+        <f>IF($B$5="Y","No Tillage",$B$6)</f>
+        <v>Reduced Tillage</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="L24" s="7" t="str">
+        <f t="shared" ref="L24:L60" si="1">$B$7</f>
+        <v>Ammonium Nitrate</v>
+      </c>
+      <c r="M24" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="N24" s="4" t="str">
+        <f>IF($B$5="Y",0,$B$7)</f>
+        <v>Ammonium Nitrate</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="P24" s="7" t="s">
-        <v>123</v>
+      <c r="P24" s="7" t="str">
+        <f t="shared" ref="P24:P60" si="2">$B$9</f>
+        <v>Surface Broadcast</v>
       </c>
       <c r="Q24" s="10" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="25" customHeight="1">
-      <c r="A25" s="17"/>
-      <c r="B25" s="7">
-        <v>2008</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="G25">
-        <v>50</v>
-      </c>
-      <c r="H25" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I25" s="7">
-        <v>0</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="K25" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="M25" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="N25" s="7">
-        <v>100</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q25" s="10" t="s">
-        <v>1</v>
-      </c>
+    <row r="25" spans="1:17" s="34" customFormat="1" ht="25" customHeight="1">
+      <c r="A25" s="33"/>
+      <c r="B25" s="4">
+        <f>IF($B$4="None","",$B$24)</f>
+        <v>2001</v>
+      </c>
+      <c r="C25" s="4" t="str">
+        <f>IF($B$4="None","",$B$4)</f>
+        <v>Cereal Rye</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="35"/>
     </row>
     <row r="26" spans="1:17" ht="25" customHeight="1">
-      <c r="A26" s="17"/>
+      <c r="A26" s="15"/>
       <c r="B26" s="7">
-        <v>2009</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>3</v>
+        <v>2002</v>
+      </c>
+      <c r="C26" s="4" t="str">
+        <f t="shared" ref="C26:C58" si="3">$B$3</f>
+        <v>Alfalfa</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>168</v>
+        <v>139</v>
+      </c>
+      <c r="E26" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="G26">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="H26" s="10" t="b">
         <v>1</v>
@@ -2373,199 +2007,153 @@
         <v>97</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>109</v>
+        <v>201</v>
+      </c>
+      <c r="L26" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>Ammonium Nitrate</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="N26" s="7">
+        <f t="shared" ref="N26:N58" si="4">$B$8</f>
         <v>100</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="P26" s="7" t="s">
-        <v>123</v>
+      <c r="P26" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>Surface Broadcast</v>
       </c>
       <c r="Q26" s="10" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="25" customHeight="1">
-      <c r="A27" s="17"/>
-      <c r="B27" s="7">
-        <v>2010</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="G27">
-        <v>74</v>
-      </c>
-      <c r="H27" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" s="7">
+    <row r="27" spans="1:17" s="34" customFormat="1" ht="25" customHeight="1">
+      <c r="A27" s="33"/>
+      <c r="B27" s="4">
+        <f>IF($B$4="None","",$B$26)</f>
+        <v>2002</v>
+      </c>
+      <c r="C27" s="4" t="str">
+        <f>IF($B$4="None","",$B$4)</f>
+        <v>Cereal Rye</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="35"/>
+    </row>
+    <row r="28" spans="1:17" ht="25" customHeight="1">
+      <c r="A28" s="15"/>
+      <c r="B28" s="7">
+        <v>2003</v>
+      </c>
+      <c r="C28" s="4" t="str">
+        <f>IF($B$5="Y","Fallow",$B$3)</f>
+        <v>Alfalfa</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E28" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="G28">
         <v>0</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="K27" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="M27" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="N27" s="7">
-        <v>100</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q27" s="10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" ht="25" customHeight="1">
-      <c r="A28" s="17"/>
-      <c r="B28" s="7">
-        <v>2011</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="G28">
-        <v>75</v>
-      </c>
-      <c r="H28" s="10" t="b">
-        <v>1</v>
+      <c r="H28" s="30" t="str">
+        <f>IF($B$5="Y","FALSE","TRUE")</f>
+        <v>TRUE</v>
       </c>
       <c r="I28" s="7">
         <v>0</v>
       </c>
-      <c r="J28" s="7" t="s">
-        <v>97</v>
+      <c r="J28" s="4" t="str">
+        <f>IF($B$5="Y","No Tillage",$B$6)</f>
+        <v>Reduced Tillage</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>109</v>
+        <v>202</v>
+      </c>
+      <c r="L28" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>Ammonium Nitrate</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="N28" s="7">
-        <v>100</v>
+        <v>232</v>
+      </c>
+      <c r="N28" s="4" t="str">
+        <f>IF($B$5="Y",0,$B$7)</f>
+        <v>Ammonium Nitrate</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="P28" s="7" t="s">
-        <v>123</v>
+      <c r="P28" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>Surface Broadcast</v>
       </c>
       <c r="Q28" s="10" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="25" customHeight="1">
-      <c r="A29" s="17"/>
-      <c r="B29" s="7">
-        <v>2012</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="G29">
-        <v>72</v>
-      </c>
-      <c r="H29" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" s="7">
-        <v>0</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="K29" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="M29" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="N29" s="7">
-        <v>100</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q29" s="10" t="s">
-        <v>1</v>
-      </c>
+      <c r="A29" s="15"/>
+      <c r="B29" s="4">
+        <f>IF($B$4="None","",$B$28)</f>
+        <v>2003</v>
+      </c>
+      <c r="C29" s="4" t="str">
+        <f>IF($B$4="None","",$B$4)</f>
+        <v>Cereal Rye</v>
+      </c>
+      <c r="E29" s="10"/>
+      <c r="G29"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="10"/>
     </row>
     <row r="30" spans="1:17" ht="25" customHeight="1">
-      <c r="A30" s="17"/>
+      <c r="A30" s="15"/>
       <c r="B30" s="7">
-        <v>2013</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>3</v>
+        <v>2004</v>
+      </c>
+      <c r="C30" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>Alfalfa</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>168</v>
+        <v>141</v>
+      </c>
+      <c r="E30" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="G30">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H30" s="10" t="b">
         <v>1</v>
@@ -2577,199 +2165,149 @@
         <v>97</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>109</v>
+        <v>203</v>
+      </c>
+      <c r="L30" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>Ammonium Nitrate</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="N30" s="7">
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="P30" s="7" t="s">
-        <v>123</v>
+      <c r="P30" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>Surface Broadcast</v>
       </c>
       <c r="Q30" s="10" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:17" ht="25" customHeight="1">
-      <c r="A31" s="17"/>
-      <c r="B31" s="7">
-        <v>2014</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="G31">
-        <v>50</v>
-      </c>
-      <c r="H31" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I31" s="7">
+      <c r="A31" s="15"/>
+      <c r="B31" s="4">
+        <f>IF($B$4="None","",$B$30)</f>
+        <v>2004</v>
+      </c>
+      <c r="C31" s="4" t="str">
+        <f>IF($B$4="None","",$B$4)</f>
+        <v>Cereal Rye</v>
+      </c>
+      <c r="E31" s="10"/>
+      <c r="G31"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="10"/>
+    </row>
+    <row r="32" spans="1:17" ht="25" customHeight="1">
+      <c r="A32" s="15"/>
+      <c r="B32" s="7">
+        <v>2005</v>
+      </c>
+      <c r="C32" s="4" t="str">
+        <f>IF($B$5="Y","Fallow",$B$3)</f>
+        <v>Alfalfa</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E32" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="G32">
         <v>0</v>
       </c>
-      <c r="J31" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="K31" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="M31" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="N31" s="7">
-        <v>100</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q31" s="10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" ht="25" customHeight="1">
-      <c r="A32" s="17"/>
-      <c r="B32" s="7">
-        <v>2015</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="G32">
-        <v>52</v>
-      </c>
-      <c r="H32" s="10" t="b">
-        <v>1</v>
+      <c r="H32" s="30" t="str">
+        <f>IF($B$5="Y","FALSE","TRUE")</f>
+        <v>TRUE</v>
       </c>
       <c r="I32" s="7">
         <v>0</v>
       </c>
-      <c r="J32" s="7" t="s">
-        <v>97</v>
+      <c r="J32" s="4" t="str">
+        <f>IF($B$5="Y","No Tillage",$B$6)</f>
+        <v>Reduced Tillage</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>109</v>
+        <v>204</v>
+      </c>
+      <c r="L32" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>Ammonium Nitrate</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="N32" s="7">
-        <v>100</v>
+        <v>234</v>
+      </c>
+      <c r="N32" s="4" t="str">
+        <f>IF($B$5="Y",0,$B$7)</f>
+        <v>Ammonium Nitrate</v>
       </c>
       <c r="O32" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="P32" s="7" t="s">
-        <v>123</v>
+      <c r="P32" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>Surface Broadcast</v>
       </c>
       <c r="Q32" s="10" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:17" ht="25" customHeight="1">
-      <c r="A33" s="17"/>
-      <c r="B33" s="7">
-        <v>2016</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="G33">
-        <v>67</v>
-      </c>
-      <c r="H33" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" s="7">
-        <v>0</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="K33" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="M33" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="N33" s="7">
-        <v>100</v>
-      </c>
-      <c r="O33" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q33" s="10" t="s">
-        <v>1</v>
-      </c>
+      <c r="A33" s="15"/>
+      <c r="B33" s="4">
+        <f>IF($B$4="None","",$B$32)</f>
+        <v>2005</v>
+      </c>
+      <c r="C33" s="4" t="str">
+        <f>IF($B$4="None","",$B$4)</f>
+        <v>Cereal Rye</v>
+      </c>
+      <c r="E33" s="10"/>
+      <c r="G33"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="O33" s="7"/>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="10"/>
     </row>
     <row r="34" spans="1:17" ht="25" customHeight="1">
-      <c r="A34" s="17"/>
+      <c r="A34" s="15"/>
       <c r="B34" s="7">
-        <v>2017</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>187</v>
+        <v>2006</v>
+      </c>
+      <c r="C34" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>Alfalfa</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E34" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>177</v>
       </c>
       <c r="G34">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="H34" s="10" t="b">
         <v>1</v>
@@ -2780,327 +2318,304 @@
       <c r="J34" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="K34" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="M34" s="7" t="s">
-        <v>247</v>
+      <c r="K34" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="L34" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>Ammonium Nitrate</v>
+      </c>
+      <c r="M34" s="4" t="s">
+        <v>235</v>
       </c>
       <c r="N34" s="7">
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="O34" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="P34" s="7" t="s">
-        <v>123</v>
+      <c r="P34" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>Surface Broadcast</v>
       </c>
       <c r="Q34" s="10" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:17" ht="25" customHeight="1">
-      <c r="A35" s="17"/>
+      <c r="A35" s="15"/>
       <c r="B35" s="4">
-        <v>2018</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="E35" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="G35">
-        <v>53</v>
-      </c>
-      <c r="H35" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I35" s="7">
+        <f>IF($B$4="None","",$B$34)</f>
+        <v>2006</v>
+      </c>
+      <c r="C35" s="4" t="str">
+        <f>IF($B$4="None","",$B$4)</f>
+        <v>Cereal Rye</v>
+      </c>
+      <c r="E35" s="10"/>
+      <c r="G35"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7"/>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="10"/>
+    </row>
+    <row r="36" spans="1:17" ht="25" customHeight="1">
+      <c r="A36" s="15"/>
+      <c r="B36" s="7">
+        <v>2007</v>
+      </c>
+      <c r="C36" s="4" t="str">
+        <f>IF($B$5="Y","Fallow",$B$3)</f>
+        <v>Alfalfa</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E36" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="G36">
         <v>0</v>
       </c>
-      <c r="J35" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="M35" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="N35" s="7">
-        <v>100</v>
-      </c>
-      <c r="O35" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q35" s="10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" ht="25" customHeight="1">
-      <c r="A36" s="17"/>
-      <c r="B36" s="4">
-        <v>2019</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="G36">
-        <v>78</v>
-      </c>
-      <c r="H36" s="10" t="b">
-        <v>1</v>
+      <c r="H36" s="30" t="str">
+        <f>IF($B$5="Y","FALSE","TRUE")</f>
+        <v>TRUE</v>
       </c>
       <c r="I36" s="7">
         <v>0</v>
       </c>
-      <c r="J36" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="M36" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="N36" s="7">
-        <v>100</v>
+      <c r="J36" s="4" t="str">
+        <f>IF($B$5="Y","No Tillage",$B$6)</f>
+        <v>Reduced Tillage</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="L36" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>Ammonium Nitrate</v>
+      </c>
+      <c r="M36" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="N36" s="4" t="str">
+        <f>IF($B$5="Y",0,$B$7)</f>
+        <v>Ammonium Nitrate</v>
       </c>
       <c r="O36" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="P36" s="7" t="s">
-        <v>123</v>
+      <c r="P36" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>Surface Broadcast</v>
       </c>
       <c r="Q36" s="10" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:17" ht="25" customHeight="1">
-      <c r="A37" s="19"/>
-      <c r="D37" s="7"/>
+      <c r="A37" s="15"/>
+      <c r="B37" s="4">
+        <f>IF($B$4="None","",$B$36)</f>
+        <v>2007</v>
+      </c>
+      <c r="C37" s="4" t="str">
+        <f>IF($B$4="None","",$B$4)</f>
+        <v>Cereal Rye</v>
+      </c>
       <c r="E37" s="10"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="10"/>
+      <c r="G37"/>
+      <c r="H37" s="30"/>
       <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
       <c r="L37" s="7"/>
-      <c r="M37" s="7"/>
-      <c r="N37" s="7"/>
       <c r="O37" s="7"/>
       <c r="P37" s="7"/>
       <c r="Q37" s="10"/>
     </row>
-    <row r="38" spans="1:17" s="27" customFormat="1" ht="25" customHeight="1">
-      <c r="A38" s="25" t="s">
-        <v>261</v>
-      </c>
-      <c r="B38" s="26" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" s="12" customFormat="1" ht="25" customHeight="1">
-      <c r="A39" s="18"/>
-      <c r="B39" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="C39" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="D39" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="E39" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="F39" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="G39" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="H39" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="I39" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="J39" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="K39" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="L39" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="M39" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="N39" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="O39" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="P39" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q39" s="23" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" ht="25" customHeight="1" outlineLevel="1">
-      <c r="A40" s="28"/>
-      <c r="B40" s="4">
-        <v>2020</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>3</v>
+    <row r="38" spans="1:17" ht="25" customHeight="1">
+      <c r="A38" s="15"/>
+      <c r="B38" s="7">
+        <v>2008</v>
+      </c>
+      <c r="C38" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>Alfalfa</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E38" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="G38">
+        <v>50</v>
+      </c>
+      <c r="H38" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I38" s="7">
+        <v>0</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="L38" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>Ammonium Nitrate</v>
+      </c>
+      <c r="M38" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="N38" s="7">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P38" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>Surface Broadcast</v>
+      </c>
+      <c r="Q38" s="10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" ht="25" customHeight="1">
+      <c r="A39" s="15"/>
+      <c r="B39" s="4">
+        <f>IF($B$4="None","",$B$38)</f>
+        <v>2008</v>
+      </c>
+      <c r="C39" s="4" t="str">
+        <f>IF($B$4="None","",$B$4)</f>
+        <v>Cereal Rye</v>
+      </c>
+      <c r="E39" s="10"/>
+      <c r="G39"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="7"/>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="10"/>
+    </row>
+    <row r="40" spans="1:17" ht="25" customHeight="1">
+      <c r="A40" s="15"/>
+      <c r="B40" s="7">
+        <v>2009</v>
+      </c>
+      <c r="C40" s="4" t="str">
+        <f>IF($B$5="Y","Fallow",$B$3)</f>
+        <v>Alfalfa</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="E40" s="10" t="s">
-        <v>168</v>
+        <v>146</v>
+      </c>
+      <c r="E40" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="G40">
-        <v>60</v>
-      </c>
-      <c r="H40" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H40" s="30" t="str">
+        <f>IF($B$5="Y","FALSE","TRUE")</f>
+        <v>TRUE</v>
       </c>
       <c r="I40" s="7">
         <v>0</v>
       </c>
-      <c r="J40" s="7" t="s">
-        <v>107</v>
+      <c r="J40" s="4" t="str">
+        <f>IF($B$5="Y","No Tillage",$B$6)</f>
+        <v>Reduced Tillage</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>109</v>
+        <v>208</v>
+      </c>
+      <c r="L40" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>Ammonium Nitrate</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="N40" s="7">
-        <v>100</v>
+        <v>238</v>
+      </c>
+      <c r="N40" s="4" t="str">
+        <f>IF($B$5="Y",0,$B$7)</f>
+        <v>Ammonium Nitrate</v>
       </c>
       <c r="O40" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="P40" s="7" t="s">
-        <v>123</v>
+      <c r="P40" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>Surface Broadcast</v>
       </c>
       <c r="Q40" s="10" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:17" ht="25" customHeight="1" outlineLevel="1">
-      <c r="A41" s="28"/>
+    <row r="41" spans="1:17" ht="25" customHeight="1">
+      <c r="A41" s="15"/>
       <c r="B41" s="4">
-        <v>2021</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="E41" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="G41">
-        <v>60</v>
-      </c>
-      <c r="H41" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I41" s="7">
-        <v>0</v>
-      </c>
-      <c r="J41" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="K41" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="M41" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="N41" s="7">
-        <v>100</v>
-      </c>
-      <c r="O41" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="P41" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q41" s="10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" ht="25" customHeight="1" outlineLevel="1">
-      <c r="A42" s="28"/>
-      <c r="B42" s="4">
-        <v>2022</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>3</v>
+        <f>IF($B$4="None","",$B$40)</f>
+        <v>2009</v>
+      </c>
+      <c r="C41" s="4" t="str">
+        <f>IF($B$4="None","",$B$4)</f>
+        <v>Cereal Rye</v>
+      </c>
+      <c r="E41" s="10"/>
+      <c r="G41"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="O41" s="7"/>
+      <c r="P41" s="7"/>
+      <c r="Q41" s="10"/>
+    </row>
+    <row r="42" spans="1:17" ht="25" customHeight="1">
+      <c r="A42" s="15"/>
+      <c r="B42" s="7">
+        <v>2010</v>
+      </c>
+      <c r="C42" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>Alfalfa</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="E42" s="10" t="s">
-        <v>168</v>
+        <v>147</v>
+      </c>
+      <c r="E42" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="G42">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="H42" s="10" t="b">
         <v>1</v>
@@ -3109,202 +2624,152 @@
         <v>0</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>109</v>
+        <v>209</v>
+      </c>
+      <c r="L42" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>Ammonium Nitrate</v>
       </c>
       <c r="M42" s="4" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="N42" s="7">
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="O42" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="P42" s="7" t="s">
-        <v>123</v>
+      <c r="P42" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>Surface Broadcast</v>
       </c>
       <c r="Q42" s="10" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:17" ht="25" customHeight="1" outlineLevel="1">
-      <c r="A43" s="28"/>
+    <row r="43" spans="1:17" ht="25" customHeight="1">
+      <c r="A43" s="15"/>
       <c r="B43" s="4">
-        <v>2023</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="E43" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="G43">
-        <v>60</v>
-      </c>
-      <c r="H43" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" s="7">
+        <f>IF($B$4="None","",$B$42)</f>
+        <v>2010</v>
+      </c>
+      <c r="C43" s="4" t="str">
+        <f>IF($B$4="None","",$B$4)</f>
+        <v>Cereal Rye</v>
+      </c>
+      <c r="E43" s="10"/>
+      <c r="G43"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="L43" s="7"/>
+      <c r="N43" s="7"/>
+      <c r="O43" s="7"/>
+      <c r="P43" s="7"/>
+      <c r="Q43" s="10"/>
+    </row>
+    <row r="44" spans="1:17" ht="25" customHeight="1">
+      <c r="A44" s="15"/>
+      <c r="B44" s="7">
+        <v>2011</v>
+      </c>
+      <c r="C44" s="4" t="str">
+        <f>IF($B$5="Y","Fallow",$B$3)</f>
+        <v>Alfalfa</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E44" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="G44">
         <v>0</v>
       </c>
-      <c r="J43" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="K43" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="L43" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="M43" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="N43" s="7">
-        <v>100</v>
-      </c>
-      <c r="O43" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="P43" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q43" s="10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" ht="25" customHeight="1" outlineLevel="1">
-      <c r="A44" s="28"/>
-      <c r="B44" s="4">
-        <v>2024</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="E44" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="G44">
-        <v>60</v>
-      </c>
-      <c r="H44" s="10" t="b">
-        <v>1</v>
+      <c r="H44" s="30" t="str">
+        <f>IF($B$5="Y","FALSE","TRUE")</f>
+        <v>TRUE</v>
       </c>
       <c r="I44" s="7">
         <v>0</v>
       </c>
-      <c r="J44" s="7" t="s">
-        <v>107</v>
+      <c r="J44" s="4" t="str">
+        <f>IF($B$5="Y","No Tillage",$B$6)</f>
+        <v>Reduced Tillage</v>
       </c>
       <c r="K44" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>109</v>
+        <v>210</v>
+      </c>
+      <c r="L44" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>Ammonium Nitrate</v>
       </c>
       <c r="M44" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="N44" s="7">
-        <v>100</v>
+        <v>240</v>
+      </c>
+      <c r="N44" s="4" t="str">
+        <f>IF($B$5="Y",0,$B$7)</f>
+        <v>Ammonium Nitrate</v>
       </c>
       <c r="O44" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="P44" s="7" t="s">
-        <v>123</v>
+      <c r="P44" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>Surface Broadcast</v>
       </c>
       <c r="Q44" s="10" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:17" ht="25" customHeight="1" outlineLevel="1">
-      <c r="A45" s="28"/>
+    <row r="45" spans="1:17" ht="25" customHeight="1">
+      <c r="A45" s="15"/>
       <c r="B45" s="4">
-        <v>2025</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="E45" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="G45">
-        <v>60</v>
-      </c>
-      <c r="H45" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I45" s="7">
-        <v>0</v>
-      </c>
-      <c r="J45" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="K45" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="M45" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="N45" s="7">
-        <v>100</v>
-      </c>
-      <c r="O45" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q45" s="10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" ht="25" customHeight="1" outlineLevel="1">
-      <c r="A46" s="28"/>
-      <c r="B46" s="4">
-        <v>2026</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>3</v>
+        <f>IF($B$4="None","",$B$44)</f>
+        <v>2011</v>
+      </c>
+      <c r="C45" s="4" t="str">
+        <f>IF($B$4="None","",$B$4)</f>
+        <v>Cereal Rye</v>
+      </c>
+      <c r="E45" s="10"/>
+      <c r="G45"/>
+      <c r="H45" s="30"/>
+      <c r="I45" s="7"/>
+      <c r="L45" s="7"/>
+      <c r="O45" s="7"/>
+      <c r="P45" s="7"/>
+      <c r="Q45" s="10"/>
+    </row>
+    <row r="46" spans="1:17" ht="25" customHeight="1">
+      <c r="A46" s="15"/>
+      <c r="B46" s="7">
+        <v>2012</v>
+      </c>
+      <c r="C46" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>Alfalfa</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="E46" s="10" t="s">
-        <v>168</v>
+        <v>149</v>
+      </c>
+      <c r="E46" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="G46">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="H46" s="10" t="b">
         <v>1</v>
@@ -3313,310 +2778,306 @@
         <v>0</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="K46" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="L46" s="7" t="s">
-        <v>109</v>
+        <v>211</v>
+      </c>
+      <c r="L46" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>Ammonium Nitrate</v>
       </c>
       <c r="M46" s="4" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="N46" s="7">
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="O46" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="P46" s="7" t="s">
-        <v>123</v>
+      <c r="P46" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>Surface Broadcast</v>
       </c>
       <c r="Q46" s="10" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:17" ht="25" customHeight="1" outlineLevel="1">
-      <c r="A47" s="28"/>
+    <row r="47" spans="1:17" ht="25" customHeight="1">
+      <c r="A47" s="15"/>
       <c r="B47" s="4">
-        <v>2027</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="E47" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="G47">
-        <v>60</v>
-      </c>
-      <c r="H47" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I47" s="7">
+        <f>IF($B$4="None","",$B$46)</f>
+        <v>2012</v>
+      </c>
+      <c r="C47" s="4" t="str">
+        <f>IF($B$4="None","",$B$4)</f>
+        <v>Cereal Rye</v>
+      </c>
+      <c r="E47" s="10"/>
+      <c r="G47"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="L47" s="7"/>
+      <c r="N47" s="7"/>
+      <c r="O47" s="7"/>
+      <c r="P47" s="7"/>
+      <c r="Q47" s="10"/>
+    </row>
+    <row r="48" spans="1:17" ht="25" customHeight="1">
+      <c r="A48" s="15"/>
+      <c r="B48" s="7">
+        <v>2013</v>
+      </c>
+      <c r="C48" s="4" t="str">
+        <f>IF($B$5="Y","Fallow",$B$3)</f>
+        <v>Alfalfa</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="E48" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="G48">
         <v>0</v>
       </c>
-      <c r="J47" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="K47" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="L47" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="M47" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="N47" s="7">
-        <v>100</v>
-      </c>
-      <c r="O47" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="P47" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q47" s="10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" ht="25" customHeight="1" outlineLevel="1">
-      <c r="A48" s="28"/>
-      <c r="B48" s="4">
-        <v>2028</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="E48" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="G48">
-        <v>60</v>
-      </c>
-      <c r="H48" s="10" t="b">
-        <v>1</v>
+      <c r="H48" s="30" t="str">
+        <f>IF($B$5="Y","FALSE","TRUE")</f>
+        <v>TRUE</v>
       </c>
       <c r="I48" s="7">
         <v>0</v>
       </c>
-      <c r="J48" s="7" t="s">
-        <v>107</v>
+      <c r="J48" s="4" t="str">
+        <f>IF($B$5="Y","No Tillage",$B$6)</f>
+        <v>Reduced Tillage</v>
       </c>
       <c r="K48" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="L48" s="7" t="s">
-        <v>109</v>
+        <v>212</v>
+      </c>
+      <c r="L48" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>Ammonium Nitrate</v>
       </c>
       <c r="M48" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="N48" s="7">
-        <v>100</v>
+        <v>242</v>
+      </c>
+      <c r="N48" s="4" t="str">
+        <f>IF($B$5="Y",0,$B$7)</f>
+        <v>Ammonium Nitrate</v>
       </c>
       <c r="O48" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="P48" s="7" t="s">
-        <v>123</v>
+      <c r="P48" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>Surface Broadcast</v>
       </c>
       <c r="Q48" s="10" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:17" ht="25" customHeight="1" outlineLevel="1">
-      <c r="A49" s="28"/>
+    <row r="49" spans="1:17" ht="25" customHeight="1">
+      <c r="A49" s="15"/>
       <c r="B49" s="4">
-        <v>2029</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="E49" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="G49">
-        <v>60</v>
-      </c>
-      <c r="H49" s="10" t="b">
+        <f>IF($B$4="None","",$B$48)</f>
+        <v>2013</v>
+      </c>
+      <c r="C49" s="4" t="str">
+        <f>IF($B$4="None","",$B$4)</f>
+        <v>Cereal Rye</v>
+      </c>
+      <c r="E49" s="10"/>
+      <c r="G49"/>
+      <c r="H49" s="30"/>
+      <c r="I49" s="7"/>
+      <c r="L49" s="7"/>
+      <c r="O49" s="7"/>
+      <c r="P49" s="7"/>
+      <c r="Q49" s="10"/>
+    </row>
+    <row r="50" spans="1:17" ht="25" customHeight="1">
+      <c r="A50" s="15"/>
+      <c r="B50" s="7">
+        <v>2014</v>
+      </c>
+      <c r="C50" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>Alfalfa</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E50" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="G50">
+        <v>50</v>
+      </c>
+      <c r="H50" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="I49" s="7">
+      <c r="I50" s="7">
         <v>0</v>
       </c>
-      <c r="J49" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="K49" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="L49" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="M49" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="N49" s="7">
+      <c r="J50" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K50" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="L50" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>Ammonium Nitrate</v>
+      </c>
+      <c r="M50" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="N50" s="7">
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="O49" s="7" t="s">
+      <c r="O50" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="P49" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q49" s="10" t="s">
+      <c r="P50" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>Surface Broadcast</v>
+      </c>
+      <c r="Q50" s="10" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:17" s="31" customFormat="1" ht="25" customHeight="1">
-      <c r="A51" s="29" t="s">
-        <v>262</v>
-      </c>
-      <c r="B51" s="30"/>
-    </row>
-    <row r="52" spans="1:17" s="12" customFormat="1" ht="25" customHeight="1">
-      <c r="A52" s="18"/>
-      <c r="B52" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="C52" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="D52" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="E52" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="F52" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="G52" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="H52" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="I52" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="J52" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="K52" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="L52" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="M52" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="N52" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="O52" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="P52" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q52" s="23" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" ht="25" customHeight="1" outlineLevel="1">
-      <c r="A53" s="32"/>
+    <row r="51" spans="1:17" ht="25" customHeight="1">
+      <c r="A51" s="15"/>
+      <c r="B51" s="4">
+        <f>IF($B$4="None","",$B$50)</f>
+        <v>2014</v>
+      </c>
+      <c r="C51" s="4" t="str">
+        <f>IF($B$4="None","",$B$4)</f>
+        <v>Cereal Rye</v>
+      </c>
+      <c r="E51" s="10"/>
+      <c r="G51"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+      <c r="L51" s="7"/>
+      <c r="N51" s="7"/>
+      <c r="O51" s="7"/>
+      <c r="P51" s="7"/>
+      <c r="Q51" s="10"/>
+    </row>
+    <row r="52" spans="1:17" ht="25" customHeight="1">
+      <c r="A52" s="15"/>
+      <c r="B52" s="7">
+        <v>2015</v>
+      </c>
+      <c r="C52" s="4" t="str">
+        <f>IF($B$5="Y","Fallow",$B$3)</f>
+        <v>Alfalfa</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="E52" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52" s="30" t="str">
+        <f>IF($B$5="Y","FALSE","TRUE")</f>
+        <v>TRUE</v>
+      </c>
+      <c r="I52" s="7">
+        <v>0</v>
+      </c>
+      <c r="J52" s="4" t="str">
+        <f>IF($B$5="Y","No Tillage",$B$6)</f>
+        <v>Reduced Tillage</v>
+      </c>
+      <c r="K52" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="L52" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>Ammonium Nitrate</v>
+      </c>
+      <c r="M52" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="N52" s="4" t="str">
+        <f>IF($B$5="Y",0,$B$7)</f>
+        <v>Ammonium Nitrate</v>
+      </c>
+      <c r="O52" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P52" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>Surface Broadcast</v>
+      </c>
+      <c r="Q52" s="10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" ht="25" customHeight="1">
+      <c r="A53" s="15"/>
       <c r="B53" s="4">
-        <v>2020</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="E53" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="G53" s="7">
-        <v>100</v>
-      </c>
-      <c r="H53" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I53" s="7">
-        <v>0</v>
-      </c>
-      <c r="J53" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="K53" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="L53" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="M53" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="N53" s="7">
-        <v>5</v>
-      </c>
-      <c r="O53" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="P53" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q53" s="10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" ht="25" customHeight="1" outlineLevel="1">
-      <c r="A54" s="32"/>
-      <c r="B54" s="4">
-        <v>2021</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>2</v>
+        <f>IF($B$4="None","",$B$52)</f>
+        <v>2015</v>
+      </c>
+      <c r="C53" s="4" t="str">
+        <f>IF($B$4="None","",$B$4)</f>
+        <v>Cereal Rye</v>
+      </c>
+      <c r="E53" s="10"/>
+      <c r="G53"/>
+      <c r="H53" s="30"/>
+      <c r="I53" s="7"/>
+      <c r="L53" s="7"/>
+      <c r="O53" s="7"/>
+      <c r="P53" s="7"/>
+      <c r="Q53" s="10"/>
+    </row>
+    <row r="54" spans="1:17" ht="25" customHeight="1">
+      <c r="A54" s="15"/>
+      <c r="B54" s="7">
+        <v>2016</v>
+      </c>
+      <c r="C54" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>Alfalfa</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="E54" s="10" t="s">
-        <v>168</v>
+        <v>153</v>
+      </c>
+      <c r="E54" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="G54" s="7">
-        <v>100</v>
+        <v>185</v>
+      </c>
+      <c r="G54">
+        <v>67</v>
       </c>
       <c r="H54" s="10" t="b">
         <v>1</v>
@@ -3625,202 +3086,156 @@
         <v>0</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="K54" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="L54" s="7" t="s">
-        <v>109</v>
+        <v>215</v>
+      </c>
+      <c r="L54" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>Ammonium Nitrate</v>
       </c>
       <c r="M54" s="4" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N54" s="7">
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>100</v>
       </c>
       <c r="O54" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="P54" s="7" t="s">
-        <v>123</v>
+      <c r="P54" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>Surface Broadcast</v>
       </c>
       <c r="Q54" s="10" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:17" ht="25" customHeight="1" outlineLevel="1">
-      <c r="A55" s="32"/>
+    <row r="55" spans="1:17" ht="25" customHeight="1">
+      <c r="A55" s="15"/>
       <c r="B55" s="4">
-        <v>2022</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="E55" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="G55" s="7">
-        <v>100</v>
-      </c>
-      <c r="H55" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I55" s="7">
+        <f>IF($B$4="None","",$B$54)</f>
+        <v>2016</v>
+      </c>
+      <c r="C55" s="4" t="str">
+        <f>IF($B$4="None","",$B$4)</f>
+        <v>Cereal Rye</v>
+      </c>
+      <c r="E55" s="10"/>
+      <c r="G55"/>
+      <c r="H55" s="10"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
+      <c r="L55" s="7"/>
+      <c r="N55" s="7"/>
+      <c r="O55" s="7"/>
+      <c r="P55" s="7"/>
+      <c r="Q55" s="10"/>
+    </row>
+    <row r="56" spans="1:17" ht="25" customHeight="1">
+      <c r="A56" s="15"/>
+      <c r="B56" s="7">
+        <v>2017</v>
+      </c>
+      <c r="C56" s="4" t="str">
+        <f>IF($B$5="Y","Fallow",$B$3)</f>
+        <v>Alfalfa</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="E56" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G56">
         <v>0</v>
       </c>
-      <c r="J55" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="K55" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="L55" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="M55" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="N55" s="7">
-        <v>5</v>
-      </c>
-      <c r="O55" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="P55" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q55" s="10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" ht="25" customHeight="1" outlineLevel="1">
-      <c r="A56" s="32"/>
-      <c r="B56" s="4">
-        <v>2023</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="E56" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="G56" s="7">
-        <v>100</v>
-      </c>
-      <c r="H56" s="10" t="b">
-        <v>1</v>
+      <c r="H56" s="30" t="str">
+        <f>IF($B$5="Y","FALSE","TRUE")</f>
+        <v>TRUE</v>
       </c>
       <c r="I56" s="7">
         <v>0</v>
       </c>
-      <c r="J56" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="K56" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="L56" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="M56" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="N56" s="7">
-        <v>5</v>
+      <c r="J56" s="4" t="str">
+        <f>IF($B$5="Y","No Tillage",$B$6)</f>
+        <v>Reduced Tillage</v>
+      </c>
+      <c r="K56" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="L56" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>Ammonium Nitrate</v>
+      </c>
+      <c r="M56" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="N56" s="4" t="str">
+        <f>IF($B$5="Y",0,$B$7)</f>
+        <v>Ammonium Nitrate</v>
       </c>
       <c r="O56" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="P56" s="7" t="s">
-        <v>123</v>
+      <c r="P56" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>Surface Broadcast</v>
       </c>
       <c r="Q56" s="10" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:17" ht="25" customHeight="1" outlineLevel="1">
-      <c r="A57" s="32"/>
+    <row r="57" spans="1:17" ht="25" customHeight="1">
+      <c r="A57" s="15"/>
       <c r="B57" s="4">
-        <v>2024</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="E57" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="G57" s="7">
-        <v>100</v>
-      </c>
-      <c r="H57" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" s="7">
-        <v>0</v>
-      </c>
-      <c r="J57" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="K57" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="L57" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="M57" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="N57" s="7">
-        <v>5</v>
-      </c>
-      <c r="O57" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="P57" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q57" s="10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" ht="25" customHeight="1" outlineLevel="1">
-      <c r="A58" s="32"/>
+        <f>IF($B$4="None","",$B$56)</f>
+        <v>2017</v>
+      </c>
+      <c r="C57" s="4" t="str">
+        <f>IF($B$4="None","",$B$4)</f>
+        <v>Cereal Rye</v>
+      </c>
+      <c r="D57" s="7"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="7"/>
+      <c r="G57"/>
+      <c r="H57" s="30"/>
+      <c r="I57" s="7"/>
+      <c r="K57" s="7"/>
+      <c r="L57" s="7"/>
+      <c r="M57" s="7"/>
+      <c r="O57" s="7"/>
+      <c r="P57" s="7"/>
+      <c r="Q57" s="10"/>
+    </row>
+    <row r="58" spans="1:17" ht="25" customHeight="1">
+      <c r="A58" s="15"/>
       <c r="B58" s="4">
-        <v>2025</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="E58" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="G58" s="7">
-        <v>100</v>
+        <v>2018</v>
+      </c>
+      <c r="C58" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>Alfalfa</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="E58" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G58">
+        <v>53</v>
       </c>
       <c r="H58" s="10" t="b">
         <v>1</v>
@@ -3829,320 +3244,974 @@
         <v>0</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="K58" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="L58" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="M58" s="4" t="s">
-        <v>255</v>
+        <v>97</v>
+      </c>
+      <c r="K58" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="L58" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>Ammonium Nitrate</v>
+      </c>
+      <c r="M58" s="7" t="s">
+        <v>247</v>
       </c>
       <c r="N58" s="7">
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>100</v>
       </c>
       <c r="O58" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="P58" s="7" t="s">
-        <v>123</v>
+      <c r="P58" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>Surface Broadcast</v>
       </c>
       <c r="Q58" s="10" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:17" ht="25" customHeight="1" outlineLevel="1">
-      <c r="A59" s="32"/>
+    <row r="59" spans="1:17" ht="25" customHeight="1">
+      <c r="A59" s="15"/>
       <c r="B59" s="4">
-        <v>2026</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="E59" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="G59" s="7">
-        <v>100</v>
-      </c>
-      <c r="H59" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I59" s="7">
+        <f>IF($B$4="None","",$B$58)</f>
+        <v>2018</v>
+      </c>
+      <c r="C59" s="4" t="str">
+        <f>IF($B$4="None","",$B$4)</f>
+        <v>Cereal Rye</v>
+      </c>
+      <c r="D59" s="7"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="7"/>
+      <c r="G59"/>
+      <c r="H59" s="10"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="7"/>
+      <c r="K59" s="7"/>
+      <c r="L59" s="7"/>
+      <c r="M59" s="7"/>
+      <c r="N59" s="7"/>
+      <c r="O59" s="7"/>
+      <c r="P59" s="7"/>
+      <c r="Q59" s="10"/>
+    </row>
+    <row r="60" spans="1:17" ht="25" customHeight="1">
+      <c r="A60" s="15"/>
+      <c r="B60" s="4">
+        <v>2019</v>
+      </c>
+      <c r="C60" s="4" t="str">
+        <f>IF($B$5="Y","Fallow",$B$3)</f>
+        <v>Alfalfa</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E60" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G60">
         <v>0</v>
       </c>
-      <c r="J59" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="K59" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="L59" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="M59" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="N59" s="7">
-        <v>5</v>
-      </c>
-      <c r="O59" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="P59" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q59" s="10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" ht="25" customHeight="1" outlineLevel="1">
-      <c r="A60" s="32"/>
-      <c r="B60" s="4">
-        <v>2027</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="E60" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="G60" s="7">
-        <v>100</v>
-      </c>
-      <c r="H60" s="10" t="b">
-        <v>1</v>
+      <c r="H60" s="30" t="str">
+        <f>IF($B$5="Y","FALSE","TRUE")</f>
+        <v>TRUE</v>
       </c>
       <c r="I60" s="7">
         <v>0</v>
       </c>
-      <c r="J60" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="K60" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="L60" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="M60" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="N60" s="7">
-        <v>5</v>
+      <c r="J60" s="4" t="str">
+        <f>IF($B$5="Y","No Tillage",$B$6)</f>
+        <v>Reduced Tillage</v>
+      </c>
+      <c r="K60" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="L60" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>Ammonium Nitrate</v>
+      </c>
+      <c r="M60" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="N60" s="4" t="str">
+        <f>IF($B$5="Y",0,$B$7)</f>
+        <v>Ammonium Nitrate</v>
       </c>
       <c r="O60" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="P60" s="7" t="s">
-        <v>123</v>
+      <c r="P60" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>Surface Broadcast</v>
       </c>
       <c r="Q60" s="10" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:17" ht="25" customHeight="1" outlineLevel="1">
-      <c r="A61" s="32"/>
+    <row r="61" spans="1:17" ht="25" customHeight="1">
+      <c r="A61" s="15"/>
       <c r="B61" s="4">
+        <f>IF($B$4="None","",$B$60)</f>
+        <v>2019</v>
+      </c>
+      <c r="C61" s="4" t="str">
+        <f>IF($B$4="None","",$B$4)</f>
+        <v>Cereal Rye</v>
+      </c>
+      <c r="D61" s="7"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="7"/>
+      <c r="G61"/>
+      <c r="H61" s="10"/>
+      <c r="I61" s="7"/>
+      <c r="J61" s="7"/>
+      <c r="K61" s="7"/>
+      <c r="L61" s="7"/>
+      <c r="M61" s="7"/>
+      <c r="N61" s="7"/>
+      <c r="O61" s="7"/>
+      <c r="P61" s="7"/>
+      <c r="Q61" s="10"/>
+    </row>
+    <row r="62" spans="1:17" ht="25" customHeight="1">
+      <c r="A62" s="17"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="10"/>
+      <c r="I62" s="7"/>
+      <c r="J62" s="7"/>
+      <c r="K62" s="7"/>
+      <c r="L62" s="7"/>
+      <c r="M62" s="7"/>
+      <c r="N62" s="7"/>
+      <c r="O62" s="7"/>
+      <c r="P62" s="7"/>
+      <c r="Q62" s="10"/>
+    </row>
+    <row r="63" spans="1:17" s="25" customFormat="1" ht="25" customHeight="1">
+      <c r="A63" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="B63" s="24" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" s="11" customFormat="1" ht="25" customHeight="1">
+      <c r="A64" s="16"/>
+      <c r="B64" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="C64" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="D64" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="E64" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="F64" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="G64" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="H64" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="I64" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="J64" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="K64" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="L64" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="M64" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="N64" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="O64" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="P64" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q64" s="21" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" ht="25" customHeight="1" outlineLevel="1">
+      <c r="A65" s="26"/>
+      <c r="B65" s="4">
+        <v>2020</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="E65" s="10" t="str">
+        <f>IF($B$11="ALFALFA","Y",IF($B$11="CLOVER","Y",IF($B$11="Grass","Y",IF($B$11="Switchgrass","Y","N"))))</f>
+        <v>N</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="G65">
+        <v>60</v>
+      </c>
+      <c r="H65" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I65" s="7">
+        <v>0</v>
+      </c>
+      <c r="J65" s="7" t="str">
+        <f>$B$14</f>
+        <v>No Tillage</v>
+      </c>
+      <c r="K65" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="L65" s="7" t="str">
+        <f>$B$15</f>
+        <v>Compost</v>
+      </c>
+      <c r="M65" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="N65" s="7">
+        <f>$B$16</f>
+        <v>100</v>
+      </c>
+      <c r="O65" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P65" s="7" t="str">
+        <f>$B$17</f>
+        <v>Surface Broadcast</v>
+      </c>
+      <c r="Q65" s="10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" ht="25" customHeight="1" outlineLevel="1">
+      <c r="A66" s="26"/>
+      <c r="B66" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C66" s="4" t="str">
+        <f>IF($B$13="Y","Fallow",$B$11)</f>
+        <v>Barley</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="E66" s="10" t="str">
+        <f t="shared" ref="E66:E74" si="5">IF($B$11="ALFALFA","Y",IF($B$11="CLOVER","Y",IF($B$11="Grass","Y",IF($B$11="Switchgrass","Y","N"))))</f>
+        <v>N</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="G66">
+        <v>60</v>
+      </c>
+      <c r="H66" s="30" t="str">
+        <f>IF($B$13="Y","FALSE","TRUE")</f>
+        <v>TRUE</v>
+      </c>
+      <c r="I66" s="7">
+        <v>0</v>
+      </c>
+      <c r="J66" s="4" t="str">
+        <f>IF($B$13="Y","No Tillage",$B$14)</f>
+        <v>No Tillage</v>
+      </c>
+      <c r="K66" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="L66" s="7" t="str">
+        <f t="shared" ref="L66:L74" si="6">$B$15</f>
+        <v>Compost</v>
+      </c>
+      <c r="M66" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="N66" s="4">
+        <f>IF($B$13="Y",0,$B$16)</f>
+        <v>100</v>
+      </c>
+      <c r="O66" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P66" s="7" t="str">
+        <f t="shared" ref="P66:P74" si="7">$B$17</f>
+        <v>Surface Broadcast</v>
+      </c>
+      <c r="Q66" s="10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" ht="25" customHeight="1" outlineLevel="1">
+      <c r="A67" s="26"/>
+      <c r="B67" s="4">
+        <v>2022</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E67" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>N</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="G67">
+        <v>60</v>
+      </c>
+      <c r="H67" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I67" s="7">
+        <v>0</v>
+      </c>
+      <c r="J67" s="7" t="str">
+        <f>$B$14</f>
+        <v>No Tillage</v>
+      </c>
+      <c r="K67" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="L67" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v>Compost</v>
+      </c>
+      <c r="M67" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="N67" s="7">
+        <f>$B$16</f>
+        <v>100</v>
+      </c>
+      <c r="O67" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P67" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v>Surface Broadcast</v>
+      </c>
+      <c r="Q67" s="10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" ht="25" customHeight="1" outlineLevel="1">
+      <c r="A68" s="26"/>
+      <c r="B68" s="4">
+        <v>2023</v>
+      </c>
+      <c r="C68" s="4" t="str">
+        <f>IF($B$13="Y","Fallow",$B$11)</f>
+        <v>Barley</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="E68" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>N</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="G68">
+        <v>60</v>
+      </c>
+      <c r="H68" s="30" t="str">
+        <f>IF($B$13="Y","FALSE","TRUE")</f>
+        <v>TRUE</v>
+      </c>
+      <c r="I68" s="7">
+        <v>0</v>
+      </c>
+      <c r="J68" s="4" t="str">
+        <f>IF($B$13="Y","No Tillage",$B$14)</f>
+        <v>No Tillage</v>
+      </c>
+      <c r="K68" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="L68" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v>Compost</v>
+      </c>
+      <c r="M68" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="N68" s="4">
+        <f>IF($B$13="Y",0,$B$16)</f>
+        <v>100</v>
+      </c>
+      <c r="O68" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P68" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v>Surface Broadcast</v>
+      </c>
+      <c r="Q68" s="10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" ht="25" customHeight="1" outlineLevel="1">
+      <c r="A69" s="26"/>
+      <c r="B69" s="4">
+        <v>2024</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E69" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>N</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="G69">
+        <v>60</v>
+      </c>
+      <c r="H69" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I69" s="7">
+        <v>0</v>
+      </c>
+      <c r="J69" s="7" t="str">
+        <f>$B$14</f>
+        <v>No Tillage</v>
+      </c>
+      <c r="K69" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="L69" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v>Compost</v>
+      </c>
+      <c r="M69" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="N69" s="7">
+        <f>$B$16</f>
+        <v>100</v>
+      </c>
+      <c r="O69" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P69" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v>Surface Broadcast</v>
+      </c>
+      <c r="Q69" s="10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" ht="25" customHeight="1" outlineLevel="1">
+      <c r="A70" s="26"/>
+      <c r="B70" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C70" s="4" t="str">
+        <f>IF($B$13="Y","Fallow",$B$11)</f>
+        <v>Barley</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E70" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>N</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="G70">
+        <v>60</v>
+      </c>
+      <c r="H70" s="30" t="str">
+        <f>IF($B$13="Y","FALSE","TRUE")</f>
+        <v>TRUE</v>
+      </c>
+      <c r="I70" s="7">
+        <v>0</v>
+      </c>
+      <c r="J70" s="4" t="str">
+        <f>IF($B$13="Y","No Tillage",$B$14)</f>
+        <v>No Tillage</v>
+      </c>
+      <c r="K70" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="L70" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v>Compost</v>
+      </c>
+      <c r="M70" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="N70" s="4">
+        <f>IF($B$13="Y",0,$B$16)</f>
+        <v>100</v>
+      </c>
+      <c r="O70" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P70" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v>Surface Broadcast</v>
+      </c>
+      <c r="Q70" s="10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" ht="25" customHeight="1" outlineLevel="1">
+      <c r="A71" s="26"/>
+      <c r="B71" s="4">
+        <v>2026</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E71" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>N</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="G71">
+        <v>60</v>
+      </c>
+      <c r="H71" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I71" s="7">
+        <v>0</v>
+      </c>
+      <c r="J71" s="7" t="str">
+        <f>$B$14</f>
+        <v>No Tillage</v>
+      </c>
+      <c r="K71" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="L71" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v>Compost</v>
+      </c>
+      <c r="M71" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="N71" s="7">
+        <f>$B$16</f>
+        <v>100</v>
+      </c>
+      <c r="O71" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P71" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v>Surface Broadcast</v>
+      </c>
+      <c r="Q71" s="10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" ht="25" customHeight="1" outlineLevel="1">
+      <c r="A72" s="26"/>
+      <c r="B72" s="4">
+        <v>2027</v>
+      </c>
+      <c r="C72" s="4" t="str">
+        <f>IF($B$13="Y","Fallow",$B$11)</f>
+        <v>Barley</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="E72" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>N</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="G72">
+        <v>60</v>
+      </c>
+      <c r="H72" s="30" t="str">
+        <f>IF($B$13="Y","FALSE","TRUE")</f>
+        <v>TRUE</v>
+      </c>
+      <c r="I72" s="7">
+        <v>0</v>
+      </c>
+      <c r="J72" s="4" t="str">
+        <f>IF($B$13="Y","No Tillage",$B$14)</f>
+        <v>No Tillage</v>
+      </c>
+      <c r="K72" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="L72" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v>Compost</v>
+      </c>
+      <c r="M72" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="N72" s="4">
+        <f>IF($B$13="Y",0,$B$16)</f>
+        <v>100</v>
+      </c>
+      <c r="O72" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P72" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v>Surface Broadcast</v>
+      </c>
+      <c r="Q72" s="10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" ht="25" customHeight="1" outlineLevel="1">
+      <c r="A73" s="26"/>
+      <c r="B73" s="4">
         <v>2028</v>
       </c>
-      <c r="C61" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D61" s="4" t="s">
+      <c r="C73" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D73" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="E61" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="F61" s="4" t="s">
+      <c r="E73" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>N</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="G73">
+        <v>60</v>
+      </c>
+      <c r="H73" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I73" s="7">
+        <v>0</v>
+      </c>
+      <c r="J73" s="7" t="str">
+        <f>$B$14</f>
+        <v>No Tillage</v>
+      </c>
+      <c r="K73" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="L73" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v>Compost</v>
+      </c>
+      <c r="M73" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="N73" s="7">
+        <f>$B$16</f>
+        <v>100</v>
+      </c>
+      <c r="O73" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P73" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v>Surface Broadcast</v>
+      </c>
+      <c r="Q73" s="10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" ht="25" customHeight="1" outlineLevel="1">
+      <c r="A74" s="26"/>
+      <c r="B74" s="4">
+        <v>2029</v>
+      </c>
+      <c r="C74" s="4" t="str">
+        <f>IF($B$13="Y","Fallow",$B$11)</f>
+        <v>Barley</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="E74" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>N</v>
+      </c>
+      <c r="F74" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="G61" s="7">
+      <c r="G74">
+        <v>60</v>
+      </c>
+      <c r="H74" s="30" t="str">
+        <f>IF($B$13="Y","FALSE","TRUE")</f>
+        <v>TRUE</v>
+      </c>
+      <c r="I74" s="7">
+        <v>0</v>
+      </c>
+      <c r="J74" s="4" t="str">
+        <f>IF($B$13="Y","No Tillage",$B$14)</f>
+        <v>No Tillage</v>
+      </c>
+      <c r="K74" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="L74" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v>Compost</v>
+      </c>
+      <c r="M74" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="N74" s="4">
+        <f>IF($B$13="Y",0,$B$16)</f>
         <v>100</v>
       </c>
-      <c r="H61" s="10" t="b">
+      <c r="O74" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P74" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v>Surface Broadcast</v>
+      </c>
+      <c r="Q74" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="I61" s="7">
-        <v>0</v>
-      </c>
-      <c r="J61" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="K61" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="L61" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="M61" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="N61" s="7">
-        <v>5</v>
-      </c>
-      <c r="O61" s="7" t="s">
+    </row>
+    <row r="78" spans="1:17" s="3" customFormat="1" ht="25" customHeight="1">
+      <c r="A78" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" ht="25" customHeight="1">
+      <c r="A79" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" ht="25" customHeight="1">
+      <c r="A80" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="25" customHeight="1">
+      <c r="A81" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="25" customHeight="1">
+      <c r="A82" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B82" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="25" customHeight="1">
+      <c r="A83" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="B83" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="P61" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q61" s="10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" ht="25" customHeight="1" outlineLevel="1">
-      <c r="A62" s="32"/>
-      <c r="B62" s="4">
-        <v>2029</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="E62" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="G62" s="7">
-        <v>100</v>
-      </c>
-      <c r="H62" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I62" s="7">
-        <v>0</v>
-      </c>
-      <c r="J62" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="K62" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="L62" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="M62" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="N62" s="7">
-        <v>5</v>
-      </c>
-      <c r="O62" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="P62" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q62" s="10" t="s">
-        <v>1</v>
+    </row>
+    <row r="84" spans="1:3" ht="25" customHeight="1">
+      <c r="A84" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="25" customHeight="1">
+      <c r="A85" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C85"/>
+    </row>
+    <row r="86" spans="1:3" ht="25" customHeight="1">
+      <c r="A86" s="13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="25" customHeight="1">
+      <c r="A87" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="25" customHeight="1">
+      <c r="A88" s="13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="25" customHeight="1">
+      <c r="A89" s="13" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" xr:uid="{650DF36D-F416-3E41-A014-4E7E8C3979E2}"/>
+    <hyperlink ref="B78" r:id="rId1" xr:uid="{650DF36D-F416-3E41-A014-4E7E8C3979E2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <ignoredErrors>
+    <ignoredError sqref="C21" unlockedFormula="1"/>
+  </ignoredErrors>
+  <legacyDrawing r:id="rId3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="13">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="15">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Choose" prompt="Make a choice" xr:uid="{C3AD2C11-A234-5E47-8591-D75A01B1DC7E}">
           <x14:formula1>
             <xm:f>yesno!$A$1:$A$2</xm:f>
           </x14:formula1>
-          <xm:sqref>I53:I62 I17:I37 B5 I40:I49 Q53:Q62 Q17:Q37 Q40:Q49</xm:sqref>
+          <xm:sqref>B82 I65:I74 Q65:Q74 Q21:Q62 I21:I62</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Choose a crop" error="Choose a crop" promptTitle="Crop" prompt="choose crop" xr:uid="{97E5F41B-79F3-664A-BF6C-E828031A2348}">
           <x14:formula1>
             <xm:f>crops!$A$2:$A$34</xm:f>
           </x14:formula1>
-          <xm:sqref>C40:C49 C17:C37 C53:C62</xm:sqref>
+          <xm:sqref>C73 B11 D84 B3 C65 C67 C69 C71</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C662B32F-7BC6-3241-AB1A-835972BD7A98}">
           <x14:formula1>
             <xm:f>'pre1980'!$A$1:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>B2</xm:sqref>
+          <xm:sqref>B79</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CCDB6A5C-E9F5-6245-BC32-084800935ED7}">
           <x14:formula1>
             <xm:f>'yr80'!$A$1:$A$9</xm:f>
           </x14:formula1>
-          <xm:sqref>B3</xm:sqref>
+          <xm:sqref>B80</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A7694CF7-8399-CC4F-8262-DA676248F9C3}">
           <x14:formula1>
             <xm:f>tillage!$A:$A</xm:f>
           </x14:formula1>
-          <xm:sqref>B4</xm:sqref>
+          <xm:sqref>B81</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{820F4AB1-A385-A643-B9BE-3195C74F83D9}">
           <x14:formula1>
             <xm:f>tillagetype!$A:$A</xm:f>
           </x14:formula1>
-          <xm:sqref>J17:J37 J53:J62 J40:J49</xm:sqref>
+          <xm:sqref>B14 J21:J23 J73 J30:J31 J34:J35 J38:J39 J42:J43 J46:J47 J50:J51 J54:J55 J58:J59 J61:J62 B6 J65 J71 J67 J69 J25:J27</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{62EC0EF5-D38F-C34F-A670-E8811702E4E5}">
           <x14:formula1>
             <xm:f>napplicationtype!$A:$A</xm:f>
           </x14:formula1>
-          <xm:sqref>L17:L37 L40:L49 L53:L62</xm:sqref>
+          <xm:sqref>B15 L65:L74 B7 L21:L62</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4B3F0D01-0C61-A842-820D-08C228960E92}">
           <x14:formula1>
             <xm:f>napplicationmethod!$A:$A</xm:f>
           </x14:formula1>
-          <xm:sqref>P17:P37 P40:P49 P53:P62</xm:sqref>
+          <xm:sqref>B17:B18 P62 B9</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{99E16EBF-9E61-1645-BD5E-612799654BF7}">
           <x14:formula1>
             <xm:f>eep!$A:$A</xm:f>
           </x14:formula1>
-          <xm:sqref>O17:O37 O40:O49 O53:O62</xm:sqref>
+          <xm:sqref>O65:O74 O21:O62</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Choose" prompt="Make a choice" xr:uid="{06A2A93F-3AE0-7547-A6B8-80C32B43ECDC}">
           <x14:formula1>
             <xm:f>CRP!$A$1:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>B6</xm:sqref>
+          <xm:sqref>B83</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1876C627-C0B8-8143-B7E3-48E6C3FB7181}">
           <x14:formula1>
             <xm:f>binary!$A:$A</xm:f>
           </x14:formula1>
-          <xm:sqref>B8</xm:sqref>
+          <xm:sqref>B85</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Choose" prompt="Make a choice" xr:uid="{8F48DC1A-6F30-9F4D-AF45-BC62A834EB1F}">
           <x14:formula1>
             <xm:f>TF!$A$1:$A$2</xm:f>
           </x14:formula1>
-          <xm:sqref>H17:H37 H40:H49 H53:H62</xm:sqref>
+          <xm:sqref>H62 H65 H67 H69 H71 H73</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Choose" prompt="Make a choice" xr:uid="{E7666449-C24D-574C-B125-F28CC372BDB7}">
           <x14:formula1>
             <xm:f>YN!$A$1:$A$2</xm:f>
           </x14:formula1>
-          <xm:sqref>E17:E37 E40:E49 E53:E62</xm:sqref>
+          <xm:sqref>E62</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Choose a crop" error="Choose a crop" promptTitle="Cover crop" prompt="choose cover crop" xr:uid="{C30448D0-0C72-45CC-8D72-D39810425B99}">
+          <x14:formula1>
+            <xm:f>covercrops!$A$2:$A$34</xm:f>
+          </x14:formula1>
+          <xm:sqref>B4 B12</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Choose a crop" error="Choose a crop" promptTitle="Rotate fallow" prompt="Choose whether field is left fallow every other year (starting after first crop rotation)" xr:uid="{3FA69AFF-EF9A-4B56-AB5B-930242C70D53}">
+          <x14:formula1>
+            <xm:f>YN!$A$1:$A$2</xm:f>
+          </x14:formula1>
+          <xm:sqref>B5 B13</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4152,13 +4221,14 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29EA7B87-79B2-534A-945E-D61302BCD4A9}">
+  <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="b">
@@ -4184,7 +4254,7 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -4210,7 +4280,7 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="16384" width="10.83203125" style="2"/>
   </cols>
@@ -4279,7 +4349,7 @@
       <selection activeCell="K48" sqref="K48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="23.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="16384" width="10.83203125" style="2"/>
@@ -4344,7 +4414,7 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="9" t="s">
@@ -4385,7 +4455,7 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="16384" width="10.83203125" style="2"/>
   </cols>
@@ -4419,7 +4489,7 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -4443,22 +4513,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4844B9D2-9681-884A-A06D-234A743A182D}">
+  <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -4473,7 +4544,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="9" t="s">
@@ -4502,7 +4573,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="26.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="16384" width="10.83203125" style="2"/>
@@ -4542,7 +4613,7 @@
       <selection activeCell="A2" sqref="A1:A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="6" t="s">
@@ -4603,7 +4674,7 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -4630,11 +4701,11 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -4919,13 +4990,13 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DF27384-76BF-B542-A9B2-05B92B0EBBB8}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B14"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
   </cols>
@@ -4940,10 +5011,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>121</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4956,7 +5027,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
         <v>37</v>
@@ -4964,7 +5035,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
         <v>37</v>
@@ -4972,7 +5043,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s">
         <v>37</v>
@@ -4980,7 +5051,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>37</v>
@@ -4988,7 +5059,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
         <v>37</v>
@@ -4996,7 +5067,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
         <v>37</v>
@@ -5004,7 +5075,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
         <v>37</v>
@@ -5012,7 +5083,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s">
         <v>37</v>
@@ -5020,7 +5091,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
@@ -5028,7 +5099,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
         <v>37</v>
@@ -5036,9 +5107,17 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
         <v>34</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>37</v>
       </c>
     </row>
@@ -5056,7 +5135,7 @@
       <selection sqref="A1:B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="24.5" bestFit="1" customWidth="1"/>
   </cols>

--- a/template_v3.xlsx
+++ b/template_v3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dpollard/projects/comet/COMET-Farm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8668C17F-EFB5-3746-9B8A-D7EFE5520773}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34865C72-78DF-A34C-A5CC-6009904B48B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{5384504D-6727-334D-8532-C0C118A2956A}"/>
   </bookViews>
@@ -1569,7 +1569,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
